--- a/natmiOut/OldD4/LR-pairs_lrc2p/Ace-Bdkrb2.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Ace-Bdkrb2.xlsx
@@ -534,34 +534,34 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>33.9350676220625</v>
+        <v>39.447365</v>
       </c>
       <c r="H2">
-        <v>33.9350676220625</v>
+        <v>118.342095</v>
       </c>
       <c r="I2">
-        <v>0.3754099419715235</v>
+        <v>0.381567221408747</v>
       </c>
       <c r="J2">
-        <v>0.3754099419715235</v>
+        <v>0.3841102728938004</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.39155073616178</v>
+        <v>1.642212666666667</v>
       </c>
       <c r="N2">
-        <v>1.39155073616178</v>
+        <v>4.926638000000001</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -570,16 +570,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>47.22236833118085</v>
+        <v>64.78096246962333</v>
       </c>
       <c r="R2">
-        <v>47.22236833118085</v>
+        <v>583.0286622266101</v>
       </c>
       <c r="S2">
-        <v>0.3754099419715235</v>
+        <v>0.381567221408747</v>
       </c>
       <c r="T2">
-        <v>0.3754099419715235</v>
+        <v>0.3841102728938004</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,34 +596,34 @@
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>51.6247147134219</v>
+        <v>54.64926166666667</v>
       </c>
       <c r="H3">
-        <v>51.6247147134219</v>
+        <v>163.947785</v>
       </c>
       <c r="I3">
-        <v>0.5711033604147647</v>
+        <v>0.5286124162206919</v>
       </c>
       <c r="J3">
-        <v>0.5711033604147647</v>
+        <v>0.5321354876866436</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.39155073616178</v>
+        <v>1.642212666666667</v>
       </c>
       <c r="N3">
-        <v>1.39155073616178</v>
+        <v>4.926638000000001</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -632,16 +632,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>71.83840976360412</v>
+        <v>89.74570973298111</v>
       </c>
       <c r="R3">
-        <v>71.83840976360412</v>
+        <v>807.7113875968301</v>
       </c>
       <c r="S3">
-        <v>0.5711033604147647</v>
+        <v>0.5286124162206919</v>
       </c>
       <c r="T3">
-        <v>0.5711033604147647</v>
+        <v>0.5321354876866436</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,34 +658,34 @@
         <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.09707670618579</v>
+        <v>3.463205333333333</v>
       </c>
       <c r="H4">
-        <v>1.09707670618579</v>
+        <v>10.389616</v>
       </c>
       <c r="I4">
-        <v>0.01213651633744663</v>
+        <v>0.03349895832606192</v>
       </c>
       <c r="J4">
-        <v>0.01213651633744663</v>
+        <v>0.03372222062674989</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.39155073616178</v>
+        <v>1.642212666666667</v>
       </c>
       <c r="N4">
-        <v>1.39155073616178</v>
+        <v>4.926638000000001</v>
       </c>
       <c r="O4">
         <v>1</v>
@@ -694,16 +694,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>1.526637898118777</v>
+        <v>5.687319665667555</v>
       </c>
       <c r="R4">
-        <v>1.526637898118777</v>
+        <v>51.18587699100801</v>
       </c>
       <c r="S4">
-        <v>0.01213651633744663</v>
+        <v>0.03349895832606192</v>
       </c>
       <c r="T4">
-        <v>0.01213651633744663</v>
+        <v>0.03372222062674989</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,34 +720,34 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.29935987194195</v>
+        <v>3.769275333333333</v>
       </c>
       <c r="H5">
-        <v>2.29935987194195</v>
+        <v>11.307826</v>
       </c>
       <c r="I5">
-        <v>0.02543688922948177</v>
+        <v>0.03645951803534987</v>
       </c>
       <c r="J5">
-        <v>0.02543688922948177</v>
+        <v>0.03670251173680516</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.39155073616178</v>
+        <v>1.642212666666667</v>
       </c>
       <c r="N5">
-        <v>1.39155073616178</v>
+        <v>4.926638000000001</v>
       </c>
       <c r="O5">
         <v>1</v>
@@ -756,16 +756,16 @@
         <v>1</v>
       </c>
       <c r="Q5">
-        <v>3.199675922501677</v>
+        <v>6.189951696554223</v>
       </c>
       <c r="R5">
-        <v>3.199675922501677</v>
+        <v>55.70956526898801</v>
       </c>
       <c r="S5">
-        <v>0.02543688922948177</v>
+        <v>0.03645951803534987</v>
       </c>
       <c r="T5">
-        <v>0.02543688922948177</v>
+        <v>0.03670251173680516</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,34 +782,34 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.43847719871571</v>
+        <v>2.053371</v>
       </c>
       <c r="H6">
-        <v>1.43847719871571</v>
+        <v>4.106742</v>
       </c>
       <c r="I6">
-        <v>0.01591329204678341</v>
+        <v>0.01986188600914916</v>
       </c>
       <c r="J6">
-        <v>0.01591329204678341</v>
+        <v>0.01332950705600092</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.39155073616178</v>
+        <v>1.642212666666667</v>
       </c>
       <c r="N6">
-        <v>1.39155073616178</v>
+        <v>4.926638000000001</v>
       </c>
       <c r="O6">
         <v>1</v>
@@ -818,16 +818,16 @@
         <v>1</v>
       </c>
       <c r="Q6">
-        <v>2.001714004824781</v>
+        <v>3.372071865566</v>
       </c>
       <c r="R6">
-        <v>2.001714004824781</v>
+        <v>20.232431193396</v>
       </c>
       <c r="S6">
-        <v>0.01591329204678341</v>
+        <v>0.01986188600914916</v>
       </c>
       <c r="T6">
-        <v>0.01591329204678341</v>
+        <v>0.01332950705600092</v>
       </c>
     </row>
   </sheetData>
